--- a/protected/xls_format/test/授课课程course_test.xlsx
+++ b/protected/xls_format/test/授课课程course_test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>课程名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -82,70 +82,82 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>js1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾路洋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kc2</t>
+  </si>
+  <si>
+    <t>jj2</t>
+  </si>
+  <si>
+    <t>js2</t>
+  </si>
+  <si>
+    <t>js3</t>
+  </si>
+  <si>
+    <t>jj4</t>
+  </si>
+  <si>
+    <t>js4</t>
+  </si>
+  <si>
+    <t>kc5</t>
+  </si>
+  <si>
+    <t>jj5</t>
+  </si>
+  <si>
+    <t>js5</t>
+  </si>
+  <si>
+    <t>kc6</t>
+  </si>
+  <si>
+    <t>js6</t>
+  </si>
+  <si>
+    <t>kc7</t>
+  </si>
+  <si>
+    <t>jj7</t>
+  </si>
+  <si>
+    <t>js7</t>
+  </si>
+  <si>
     <t>jj1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>js1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾路洋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kc2</t>
-  </si>
-  <si>
-    <t>jj2</t>
-  </si>
-  <si>
-    <t>js2</t>
-  </si>
-  <si>
-    <t>kc3</t>
-  </si>
-  <si>
-    <t>jj3</t>
-  </si>
-  <si>
-    <t>js3</t>
-  </si>
-  <si>
-    <t>kc4</t>
-  </si>
-  <si>
-    <t>jj4</t>
-  </si>
-  <si>
-    <t>js4</t>
-  </si>
-  <si>
-    <t>kc5</t>
-  </si>
-  <si>
-    <t>jj5</t>
-  </si>
-  <si>
-    <t>js5</t>
-  </si>
-  <si>
-    <t>kc6</t>
-  </si>
-  <si>
     <t>jj6</t>
-  </si>
-  <si>
-    <t>js6</t>
-  </si>
-  <si>
-    <t>kc7</t>
-  </si>
-  <si>
-    <t>jj7</t>
-  </si>
-  <si>
-    <t>js7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jj3_new</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kc3_new</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kc4_new</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾路洋2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾路洋2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -645,7 +657,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -717,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -726,10 +738,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -743,10 +755,10 @@
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -755,10 +767,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -772,10 +784,10 @@
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -784,10 +796,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -801,10 +813,10 @@
     </row>
     <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -813,10 +825,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -830,10 +842,10 @@
     </row>
     <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -842,10 +854,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -859,10 +871,10 @@
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -871,10 +883,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -888,10 +900,10 @@
     </row>
     <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -900,10 +912,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
